--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC7 ARIX MANO #1.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC7 ARIX MANO #1.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32123585-5076-42B6-9693-7AA49825EB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47819E22-879E-44F1-85FB-E3A6A4B9820B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,23 +16,12 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$210</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$2:$G$212</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -91,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="353">
   <si>
     <t>FECHA DE EMISIÓN:</t>
   </si>
@@ -981,9 +970,6 @@
     <t>J221212-L039</t>
   </si>
   <si>
-    <t>J221212-L035</t>
-  </si>
-  <si>
     <t>MOTOR ACULAN # 1</t>
   </si>
   <si>
@@ -1144,6 +1130,15 @@
   </si>
   <si>
     <t>15% IVA</t>
+  </si>
+  <si>
+    <t>J220809-L040</t>
+  </si>
+  <si>
+    <t>J220720-L057</t>
+  </si>
+  <si>
+    <t>J220927-L093</t>
   </si>
 </sst>
 </file>
@@ -1151,12 +1146,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1557,10 +1552,10 @@
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1576,7 +1571,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1647,13 +1642,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1663,7 +1658,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1752,6 +1747,18 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1787,18 +1794,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2168,10 +2163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J216"/>
+  <dimension ref="A1:J218"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A123" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="73" workbookViewId="0">
-      <selection activeCell="G142" sqref="G142"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="73" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62:XFD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2568,13 +2563,13 @@
     <row r="2" spans="1:10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25"/>
       <c r="B2" s="26"/>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="79"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2584,7 +2579,7 @@
     <row r="3" spans="1:10" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
-      <c r="C3" s="83"/>
+      <c r="C3" s="87"/>
       <c r="D3" s="72" t="s">
         <v>23</v>
       </c>
@@ -2598,13 +2593,13 @@
     <row r="4" spans="1:10" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="32"/>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="85"/>
+      <c r="E4" s="89"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2614,11 +2609,11 @@
     <row r="5" spans="1:10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="86" t="s">
+      <c r="C5" s="85"/>
+      <c r="D5" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="87"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -2669,10 +2664,10 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="77"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10" t="s">
         <v>19</v>
@@ -2781,7 +2776,7 @@
         <v>10</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C23" s="19" t="s">
         <v>11</v>
@@ -2817,13 +2812,13 @@
         <v>350</v>
       </c>
       <c r="G24" s="39">
-        <f t="shared" ref="G24:G131" si="0">D24*F24</f>
+        <f t="shared" ref="G24:G133" si="0">D24*F24</f>
         <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>31</v>
@@ -2980,7 +2975,7 @@
         <v>50</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="38" t="s">
         <v>52</v>
@@ -3079,7 +3074,7 @@
         <v>179</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C37" s="55" t="s">
         <v>180</v>
@@ -3107,7 +3102,7 @@
         <v>183</v>
       </c>
       <c r="D38" s="37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E38" s="38"/>
       <c r="F38" s="39">
@@ -3115,7 +3110,7 @@
       </c>
       <c r="G38" s="39">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3123,7 +3118,7 @@
         <v>181</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C39" s="55" t="s">
         <v>183</v>
@@ -3137,60 +3132,55 @@
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D40" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="38"/>
-      <c r="F40" s="39">
-        <v>40</v>
-      </c>
-      <c r="G40" s="39">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D41" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E41" s="38"/>
       <c r="F41" s="39">
         <v>40</v>
       </c>
       <c r="G41" s="39">
-        <f t="shared" si="0"/>
-        <v>200</v>
+        <f t="shared" ref="G41" si="1">D41*F41</f>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D42" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E42" s="38"/>
       <c r="F42" s="39">
@@ -3198,18 +3188,18 @@
       </c>
       <c r="G42" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>192</v>
+        <v>322</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D43" s="37">
         <v>5</v>
@@ -3225,13 +3215,13 @@
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D44" s="37">
         <v>5</v>
@@ -3247,16 +3237,16 @@
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C45" s="55" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D45" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" s="38"/>
       <c r="F45" s="39">
@@ -3264,38 +3254,43 @@
       </c>
       <c r="G45" s="39">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>335</v>
+        <v>195</v>
       </c>
       <c r="C46" s="55" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D46" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46" s="38"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
+      <c r="F46" s="39">
+        <v>40</v>
+      </c>
+      <c r="G46" s="39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B47" s="37" t="s">
         <v>198</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D47" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E47" s="38"/>
       <c r="F47" s="39">
@@ -3303,54 +3298,60 @@
       </c>
       <c r="G47" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B48" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="D48" s="37">
+        <v>2</v>
+      </c>
+      <c r="E48" s="38"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+    </row>
+    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="56" t="s">
+        <v>200</v>
+      </c>
+      <c r="B49" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="55" t="s">
-        <v>203</v>
-      </c>
-      <c r="D48" s="37">
+      <c r="C49" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="37">
         <v>5</v>
       </c>
-      <c r="E48" s="38"/>
-      <c r="F48" s="39">
+      <c r="E49" s="38"/>
+      <c r="F49" s="39">
         <v>40</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G49" s="39">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="56"/>
-      <c r="B49" s="37"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="50">
-        <v>60</v>
-      </c>
-      <c r="E49" s="38"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D50" s="37">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E50" s="38"/>
       <c r="F50" s="39">
@@ -3358,43 +3359,32 @@
       </c>
       <c r="G50" s="39">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="C51" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D51" s="37">
-        <v>2</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="56"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="55"/>
+      <c r="D51" s="50">
+        <v>60</v>
       </c>
       <c r="E51" s="38"/>
-      <c r="F51" s="39">
-        <v>40</v>
-      </c>
-      <c r="G51" s="39">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
     </row>
     <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C52" s="55" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D52" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="38"/>
       <c r="F52" s="39">
@@ -3402,43 +3392,43 @@
       </c>
       <c r="G52" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>211</v>
+        <v>352</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D53" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="38"/>
       <c r="F53" s="39">
         <v>40</v>
       </c>
       <c r="G53" s="39">
-        <f t="shared" ref="G53" si="1">D53*F53</f>
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="56" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>343</v>
+        <v>208</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D54" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="38"/>
       <c r="F54" s="39">
@@ -3446,18 +3436,18 @@
       </c>
       <c r="G54" s="39">
         <f t="shared" si="0"/>
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D55" s="37">
         <v>3</v>
@@ -3467,19 +3457,19 @@
         <v>40</v>
       </c>
       <c r="G55" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G55" si="2">D55*F55</f>
         <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="56" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D56" s="37">
         <v>2</v>
@@ -3489,19 +3479,19 @@
         <v>40</v>
       </c>
       <c r="G56" s="39">
-        <f t="shared" ref="G56" si="2">D56*F56</f>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D57" s="37">
         <v>3</v>
@@ -3517,33 +3507,38 @@
     </row>
     <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="56" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D58" s="37">
         <v>2</v>
       </c>
       <c r="E58" s="38"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
+      <c r="F58" s="39">
+        <v>40</v>
+      </c>
+      <c r="G58" s="39">
+        <f t="shared" ref="G58" si="3">D58*F58</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="56" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D59" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59" s="38"/>
       <c r="F59" s="39">
@@ -3551,40 +3546,35 @@
       </c>
       <c r="G59" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="56" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C60" s="55" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="D60" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="38"/>
-      <c r="F60" s="39">
-        <v>40</v>
-      </c>
-      <c r="G60" s="39">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
     </row>
     <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="56" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>224</v>
+        <v>297</v>
       </c>
       <c r="C61" s="55" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D61" s="37">
         <v>5</v>
@@ -3600,13 +3590,13 @@
     </row>
     <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="56" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>227</v>
+        <v>329</v>
       </c>
       <c r="C62" s="55" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D62" s="37">
         <v>5</v>
@@ -3622,13 +3612,13 @@
     </row>
     <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="56" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D63" s="37">
         <v>5</v>
@@ -3644,13 +3634,13 @@
     </row>
     <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="56" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D64" s="37">
         <v>5</v>
@@ -3666,13 +3656,13 @@
     </row>
     <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="56" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="D65" s="37">
         <v>5</v>
@@ -3686,28 +3676,39 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="56"/>
-      <c r="B66" s="37"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="50">
-        <v>60</v>
+    <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="56" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" s="37">
+        <v>5</v>
       </c>
       <c r="E66" s="38"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-    </row>
-    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>237</v>
+      <c r="F66" s="39">
+        <v>40</v>
+      </c>
+      <c r="G66" s="39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="56" t="s">
+        <v>235</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="D67" s="49">
+        <v>233</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="37">
         <v>5</v>
       </c>
       <c r="E67" s="38"/>
@@ -3720,91 +3721,80 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="56"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="50">
+        <v>60</v>
+      </c>
+      <c r="E68" s="38"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+    </row>
+    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" s="49">
+        <v>5</v>
+      </c>
+      <c r="E69" s="38"/>
+      <c r="F69" s="39">
+        <v>40</v>
+      </c>
+      <c r="G69" s="39">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B70" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C68" s="38" t="s">
+      <c r="C70" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="D68" s="49">
+      <c r="D70" s="49">
         <v>5</v>
-      </c>
-      <c r="E68" s="38"/>
-      <c r="F68" s="39">
-        <v>40</v>
-      </c>
-      <c r="G68" s="39">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="37"/>
-      <c r="B69" s="37"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="50">
-        <v>10</v>
-      </c>
-      <c r="E69" s="38"/>
-      <c r="F69" s="39"/>
-      <c r="G69" s="39"/>
-    </row>
-    <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="37">
-        <v>2</v>
       </c>
       <c r="E70" s="38"/>
       <c r="F70" s="39">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="G70" s="39">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
-        <v>56</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D71" s="37">
-        <v>2</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="50">
+        <v>10</v>
       </c>
       <c r="E71" s="38"/>
-      <c r="F71" s="39">
-        <v>350</v>
-      </c>
-      <c r="G71" s="39">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
     </row>
     <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="C72" s="38" t="s">
-        <v>61</v>
+      <c r="A72" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>55</v>
       </c>
       <c r="D72" s="37">
         <v>2</v>
@@ -3819,14 +3809,14 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" s="38" t="s">
-        <v>64</v>
+      <c r="A73" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="D73" s="37">
         <v>2</v>
@@ -3842,13 +3832,13 @@
     </row>
     <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="37" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>306</v>
+        <v>60</v>
       </c>
       <c r="C74" s="38" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D74" s="37">
         <v>2</v>
@@ -3864,13 +3854,13 @@
     </row>
     <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C75" s="38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D75" s="37">
         <v>2</v>
@@ -3886,13 +3876,13 @@
     </row>
     <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="37" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="C76" s="38" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D76" s="37">
         <v>2</v>
@@ -3908,16 +3898,16 @@
     </row>
     <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D77" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="38"/>
       <c r="F77" s="39">
@@ -3925,21 +3915,21 @@
       </c>
       <c r="G77" s="39">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="C78" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D78" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="38"/>
       <c r="F78" s="39">
@@ -3947,38 +3937,43 @@
       </c>
       <c r="G78" s="39">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="37" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="C79" s="38" t="s">
-        <v>342</v>
+        <v>74</v>
       </c>
       <c r="D79" s="37">
         <v>1</v>
       </c>
       <c r="E79" s="38"/>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
+      <c r="F79" s="39">
+        <v>350</v>
+      </c>
+      <c r="G79" s="39">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="C80" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D80" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E80" s="38"/>
       <c r="F80" s="39">
@@ -3986,15 +3981,21 @@
       </c>
       <c r="G80" s="39">
         <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37"/>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="50">
-        <v>18</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>341</v>
+      </c>
+      <c r="D81" s="37">
+        <v>1</v>
       </c>
       <c r="E81" s="38"/>
       <c r="F81" s="39"/>
@@ -4002,13 +4003,13 @@
     </row>
     <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D82" s="37">
         <v>2</v>
@@ -4022,37 +4023,26 @@
         <v>700</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" s="37">
-        <v>3</v>
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="50">
+        <v>18</v>
       </c>
       <c r="E83" s="38"/>
-      <c r="F83" s="39">
-        <v>350</v>
-      </c>
-      <c r="G83" s="39">
-        <f t="shared" si="0"/>
-        <v>1050</v>
-      </c>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
     </row>
     <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D84" s="37">
         <v>2</v>
@@ -4068,16 +4058,16 @@
     </row>
     <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>345</v>
+        <v>83</v>
       </c>
       <c r="D85" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="39">
@@ -4085,18 +4075,18 @@
       </c>
       <c r="G85" s="39">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="37" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B86" s="37" t="s">
-        <v>337</v>
+        <v>85</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D86" s="37">
         <v>2</v>
@@ -4106,19 +4096,19 @@
         <v>350</v>
       </c>
       <c r="G86" s="39">
-        <f t="shared" ref="G86" si="3">D86*F86</f>
+        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B87" s="37" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="C87" s="38" t="s">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="D87" s="37">
         <v>2</v>
@@ -4134,13 +4124,13 @@
     </row>
     <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>94</v>
+        <v>336</v>
       </c>
       <c r="C88" s="38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D88" s="37">
         <v>2</v>
@@ -4150,19 +4140,19 @@
         <v>350</v>
       </c>
       <c r="G88" s="39">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G88" si="4">D88*F88</f>
         <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="37" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C89" s="38" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D89" s="37">
         <v>2</v>
@@ -4178,16 +4168,16 @@
     </row>
     <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="37" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B90" s="37" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C90" s="38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D90" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="39">
@@ -4195,38 +4185,43 @@
       </c>
       <c r="G90" s="39">
         <f t="shared" si="0"/>
-        <v>350</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B91" s="37" t="s">
-        <v>327</v>
+        <v>97</v>
       </c>
       <c r="C91" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D91" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="38"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
+      <c r="F91" s="39">
+        <v>350</v>
+      </c>
+      <c r="G91" s="39">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
     </row>
     <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="37" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B92" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D92" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="39">
@@ -4234,95 +4229,90 @@
       </c>
       <c r="G92" s="39">
         <f t="shared" si="0"/>
-        <v>700</v>
+        <v>350</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="53" t="s">
-        <v>299</v>
-      </c>
-      <c r="B93" s="54">
-        <v>190704155</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>300</v>
+      <c r="A93" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>101</v>
       </c>
       <c r="D93" s="37">
         <v>1</v>
       </c>
       <c r="E93" s="38"/>
-      <c r="F93" s="39">
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="37">
+        <v>2</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="39">
         <v>350</v>
       </c>
-      <c r="G93" s="39">
-        <f t="shared" si="0"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="52"/>
-      <c r="B94" s="51"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="50">
-        <v>22</v>
-      </c>
-      <c r="E94" s="38"/>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
+      <c r="G94" s="39">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="53" t="s">
-        <v>105</v>
-      </c>
-      <c r="B95" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="C95" s="38" t="s">
-        <v>107</v>
+        <v>298</v>
+      </c>
+      <c r="B95" s="54">
+        <v>190704155</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>299</v>
       </c>
       <c r="D95" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="39">
-        <v>50</v>
+        <v>350</v>
       </c>
       <c r="G95" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D96" s="37">
-        <v>5</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="52"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="50">
+        <v>22</v>
       </c>
       <c r="E96" s="38"/>
-      <c r="F96" s="39">
-        <v>50</v>
-      </c>
-      <c r="G96" s="39">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
     </row>
     <row r="97" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C97" s="38" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D97" s="37">
         <v>5</v>
@@ -4338,13 +4328,13 @@
     </row>
     <row r="98" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="53" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C98" s="38" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D98" s="37">
         <v>5</v>
@@ -4360,16 +4350,16 @@
     </row>
     <row r="99" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="53" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B99" s="54" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C99" s="38" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D99" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="39">
@@ -4377,35 +4367,40 @@
       </c>
       <c r="G99" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>338</v>
+        <v>115</v>
       </c>
       <c r="C100" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D100" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E100" s="38"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
+      <c r="F100" s="39">
+        <v>50</v>
+      </c>
+      <c r="G100" s="39">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C101" s="38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D101" s="37">
         <v>4</v>
@@ -4421,13 +4416,13 @@
     </row>
     <row r="102" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C102" s="38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D102" s="37">
         <v>1</v>
@@ -4435,20 +4430,19 @@
       <c r="E102" s="38"/>
       <c r="F102" s="39"/>
       <c r="G102" s="39"/>
-      <c r="J102" s="88"/>
     </row>
     <row r="103" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B103" s="54" t="s">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="C103" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D103" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E103" s="38"/>
       <c r="F103" s="39">
@@ -4456,35 +4450,36 @@
       </c>
       <c r="G103" s="39">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="53" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B104" s="54" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="C104" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D104" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="39"/>
       <c r="G104" s="39"/>
+      <c r="J104" s="76"/>
     </row>
     <row r="105" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>126</v>
+        <v>307</v>
       </c>
       <c r="C105" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D105" s="37">
         <v>3</v>
@@ -4500,38 +4495,33 @@
     </row>
     <row r="106" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B106" s="54" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
       <c r="C106" s="38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D106" s="37">
         <v>2</v>
       </c>
       <c r="E106" s="38"/>
-      <c r="F106" s="39">
-        <v>50</v>
-      </c>
-      <c r="G106" s="39">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
     </row>
     <row r="107" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="53" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C107" s="38" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D107" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="39">
@@ -4539,21 +4529,21 @@
       </c>
       <c r="G107" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="53" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B108" s="54" t="s">
-        <v>132</v>
+        <v>300</v>
       </c>
       <c r="C108" s="38" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D108" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="39">
@@ -4561,38 +4551,43 @@
       </c>
       <c r="G108" s="39">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B109" s="54" t="s">
-        <v>321</v>
+        <v>129</v>
       </c>
       <c r="C109" s="38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D109" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E109" s="38"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
+      <c r="F109" s="39">
+        <v>50</v>
+      </c>
+      <c r="G109" s="39">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="110" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B110" s="54" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C110" s="38" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D110" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="39">
@@ -4600,43 +4595,38 @@
       </c>
       <c r="G110" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B111" s="54" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
       <c r="C111" s="38" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D111" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E111" s="38"/>
-      <c r="F111" s="39">
-        <v>50</v>
-      </c>
-      <c r="G111" s="39">
-        <f t="shared" ref="G111" si="4">D111*F111</f>
-        <v>150</v>
-      </c>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
     </row>
     <row r="112" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="53" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B112" s="54" t="s">
-        <v>347</v>
+        <v>135</v>
       </c>
       <c r="C112" s="38" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D112" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="39">
@@ -4644,32 +4634,43 @@
       </c>
       <c r="G112" s="39">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="54"/>
-      <c r="C113" s="51"/>
-      <c r="D113" s="50">
-        <v>60</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="53" t="s">
+        <v>137</v>
+      </c>
+      <c r="B113" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="D113" s="37">
+        <v>3</v>
       </c>
       <c r="E113" s="38"/>
-      <c r="F113" s="39"/>
-      <c r="G113" s="39"/>
+      <c r="F113" s="39">
+        <v>50</v>
+      </c>
+      <c r="G113" s="39">
+        <f t="shared" ref="G113" si="5">D113*F113</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B114" s="54" t="s">
-        <v>141</v>
+        <v>346</v>
       </c>
       <c r="C114" s="38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D114" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="39">
@@ -4677,43 +4678,32 @@
       </c>
       <c r="G114" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="53" t="s">
-        <v>143</v>
-      </c>
-      <c r="B115" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D115" s="37">
-        <v>5</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="53"/>
+      <c r="B115" s="54"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="50">
+        <v>60</v>
       </c>
       <c r="E115" s="38"/>
-      <c r="F115" s="39">
-        <v>50</v>
-      </c>
-      <c r="G115" s="39">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
     </row>
     <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="53" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B116" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C116" s="38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D116" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="39">
@@ -4721,21 +4711,21 @@
       </c>
       <c r="G116" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B117" s="54" t="s">
-        <v>302</v>
+        <v>141</v>
       </c>
       <c r="C117" s="38" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D117" s="37">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="39">
@@ -4743,21 +4733,21 @@
       </c>
       <c r="G117" s="39">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C118" s="38" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D118" s="37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="39">
@@ -4765,21 +4755,21 @@
       </c>
       <c r="G118" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="53" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B119" s="54" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C119" s="38" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D119" s="37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="39">
@@ -4787,21 +4777,21 @@
       </c>
       <c r="G119" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="53" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B120" s="54" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="C120" s="38" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D120" s="37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="39">
@@ -4809,18 +4799,18 @@
       </c>
       <c r="G120" s="39">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="53" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B121" s="54" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C121" s="38" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D121" s="37">
         <v>5</v>
@@ -4836,16 +4826,16 @@
     </row>
     <row r="122" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B122" s="54" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="C122" s="38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D122" s="37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="39">
@@ -4853,38 +4843,43 @@
       </c>
       <c r="G122" s="39">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="53" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
       <c r="C123" s="38" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D123" s="37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E123" s="38"/>
-      <c r="F123" s="39"/>
-      <c r="G123" s="39"/>
+      <c r="F123" s="39">
+        <v>50</v>
+      </c>
+      <c r="G123" s="39">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
     </row>
     <row r="124" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B124" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C124" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D124" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E124" s="38"/>
       <c r="F124" s="39">
@@ -4892,43 +4887,38 @@
       </c>
       <c r="G124" s="39">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="53" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B125" s="54" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="C125" s="38" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D125" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E125" s="38"/>
-      <c r="F125" s="39">
-        <v>50</v>
-      </c>
-      <c r="G125" s="39">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
     </row>
     <row r="126" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B126" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C126" s="38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D126" s="37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="39">
@@ -4936,21 +4926,21 @@
       </c>
       <c r="G126" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="53" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B127" s="54" t="s">
-        <v>162</v>
+        <v>295</v>
       </c>
       <c r="C127" s="38" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D127" s="37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E127" s="38"/>
       <c r="F127" s="39">
@@ -4958,18 +4948,18 @@
       </c>
       <c r="G127" s="39">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="53" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B128" s="54" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C128" s="38" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D128" s="37">
         <v>5</v>
@@ -4983,28 +4973,39 @@
         <v>250</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="52"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="51"/>
-      <c r="D129" s="50">
-        <v>60</v>
+    <row r="129" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B129" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C129" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D129" s="37">
+        <v>5</v>
       </c>
       <c r="E129" s="38"/>
-      <c r="F129" s="39"/>
-      <c r="G129" s="39"/>
-    </row>
-    <row r="130" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="B130" s="37" t="s">
-        <v>168</v>
+      <c r="F129" s="39">
+        <v>50</v>
+      </c>
+      <c r="G129" s="39">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B130" s="54" t="s">
+        <v>165</v>
       </c>
       <c r="C130" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="D130" s="49">
+        <v>166</v>
+      </c>
+      <c r="D130" s="37">
         <v>5</v>
       </c>
       <c r="E130" s="38"/>
@@ -5017,91 +5018,80 @@
       </c>
     </row>
     <row r="131" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="37" t="s">
+      <c r="A131" s="52"/>
+      <c r="B131" s="51"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="50">
+        <v>60</v>
+      </c>
+      <c r="E131" s="38"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+    </row>
+    <row r="132" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C132" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="D132" s="49">
+        <v>5</v>
+      </c>
+      <c r="E132" s="38"/>
+      <c r="F132" s="39">
+        <v>50</v>
+      </c>
+      <c r="G132" s="39">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="37" t="s">
         <v>170</v>
       </c>
-      <c r="B131" s="37" t="s">
+      <c r="B133" s="37" t="s">
         <v>171</v>
       </c>
-      <c r="C131" s="38" t="s">
+      <c r="C133" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="D131" s="49">
+      <c r="D133" s="49">
         <v>5</v>
-      </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="39">
-        <v>50</v>
-      </c>
-      <c r="G131" s="39">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="37"/>
-      <c r="B132" s="37"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="46">
-        <v>10</v>
-      </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-    </row>
-    <row r="133" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="47" t="s">
-        <v>243</v>
-      </c>
-      <c r="B133" s="48">
-        <v>210127379</v>
-      </c>
-      <c r="C133" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="D133" s="37">
-        <v>2</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="39">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G133" s="39">
-        <f t="shared" ref="G133:G138" si="5">D133*F133</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="B134" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="C134" s="40" t="s">
-        <v>247</v>
-      </c>
-      <c r="D134" s="37">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="46">
+        <v>10</v>
       </c>
       <c r="E134" s="38"/>
-      <c r="F134" s="39">
-        <v>20</v>
-      </c>
-      <c r="G134" s="39">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
     </row>
     <row r="135" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="47" t="s">
-        <v>248</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
+      </c>
+      <c r="B135" s="48">
+        <v>210127379</v>
       </c>
       <c r="C135" s="40" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D135" s="37">
         <v>2</v>
@@ -5111,19 +5101,19 @@
         <v>20</v>
       </c>
       <c r="G135" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G135:G140" si="6">D135*F135</f>
         <v>40</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="47" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B136" s="48" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C136" s="40" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D136" s="37">
         <v>2</v>
@@ -5133,19 +5123,19 @@
         <v>20</v>
       </c>
       <c r="G136" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="47" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B137" s="48" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C137" s="40" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D137" s="37">
         <v>2</v>
@@ -5155,149 +5145,173 @@
         <v>20</v>
       </c>
       <c r="G137" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="47" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B138" s="48" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C138" s="40" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="D138" s="37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E138" s="38"/>
       <c r="F138" s="39">
         <v>20</v>
       </c>
       <c r="G138" s="39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="47" t="s">
+        <v>254</v>
+      </c>
+      <c r="B139" s="48" t="s">
+        <v>255</v>
+      </c>
+      <c r="C139" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="D139" s="37">
+        <v>2</v>
+      </c>
+      <c r="E139" s="38"/>
+      <c r="F139" s="39">
+        <v>20</v>
+      </c>
+      <c r="G139" s="39">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="C140" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="D140" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="47"/>
-      <c r="B139" s="48"/>
-      <c r="C139" s="40"/>
-      <c r="D139" s="50">
+      <c r="E140" s="38"/>
+      <c r="F140" s="39">
+        <v>20</v>
+      </c>
+      <c r="G140" s="39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="47"/>
+      <c r="B141" s="48"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="50">
         <v>10</v>
       </c>
-      <c r="E139" s="38"/>
-      <c r="F139" s="39"/>
-      <c r="G139" s="39"/>
-    </row>
-    <row r="140" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="41"/>
-      <c r="B140" s="42"/>
-      <c r="C140" s="42"/>
-      <c r="D140" s="42"/>
-      <c r="E140" s="42"/>
-      <c r="F140" s="89" t="s">
+      <c r="E141" s="38"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+    </row>
+    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="41"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="77" t="s">
         <v>260</v>
       </c>
-      <c r="G140" s="43">
-        <f>SUM(G24:G139)</f>
-        <v>30850</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="45"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="45"/>
-      <c r="E141" s="45"/>
-      <c r="F141" s="90" t="s">
-        <v>350</v>
-      </c>
-      <c r="G141" s="43">
-        <f>+G140*0.15</f>
-        <v>4627.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
-      <c r="B142" s="45"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="45"/>
-      <c r="E142" s="45"/>
-      <c r="F142" s="91" t="s">
+      <c r="G142" s="43">
+        <f>SUM(G24:G141)</f>
+        <v>30770</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="44"/>
+      <c r="B143" s="45"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="45"/>
+      <c r="E143" s="45"/>
+      <c r="F143" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="G143" s="43">
+        <f>+G142*0.15</f>
+        <v>4615.5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="44"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="45"/>
+      <c r="E144" s="45"/>
+      <c r="F144" s="79" t="s">
         <v>261</v>
       </c>
-      <c r="G142" s="43">
-        <f>+G140+G141</f>
-        <v>35477.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="F143" s="35"/>
-      <c r="G143" s="36"/>
-    </row>
-    <row r="144" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="F144" s="35"/>
-      <c r="G144" s="36"/>
+      <c r="G144" s="43">
+        <f>+G142+G143</f>
+        <v>35385.5</v>
+      </c>
     </row>
     <row r="145" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="48"/>
-      <c r="C145" s="74" t="s">
-        <v>303</v>
-      </c>
+      <c r="B145" s="21"/>
+      <c r="C145" s="21"/>
       <c r="F145" s="35"/>
       <c r="G145" s="36"/>
     </row>
     <row r="146" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="40"/>
-      <c r="C146" s="62" t="s">
-        <v>262</v>
-      </c>
+      <c r="B146" s="21"/>
+      <c r="C146" s="21"/>
       <c r="F146" s="35"/>
       <c r="G146" s="36"/>
     </row>
-    <row r="147" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C147" s="19" t="s">
-        <v>333</v>
+    <row r="147" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="48"/>
+      <c r="C147" s="74" t="s">
+        <v>302</v>
       </c>
       <c r="F147" s="35"/>
       <c r="G147" s="36"/>
     </row>
-    <row r="148" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="37">
-        <v>2</v>
-      </c>
-      <c r="C148" s="55" t="s">
-        <v>263</v>
+    <row r="148" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="40"/>
+      <c r="C148" s="62" t="s">
+        <v>262</v>
       </c>
       <c r="F148" s="35"/>
       <c r="G148" s="36"/>
     </row>
     <row r="149" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="37">
-        <v>1</v>
-      </c>
-      <c r="C149" s="55" t="s">
-        <v>264</v>
+      <c r="B149" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C149" s="19" t="s">
+        <v>332</v>
       </c>
       <c r="F149" s="35"/>
       <c r="G149" s="36"/>
     </row>
     <row r="150" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="55" t="s">
-        <v>349</v>
+        <v>263</v>
       </c>
       <c r="F150" s="35"/>
       <c r="G150" s="36"/>
@@ -5307,7 +5321,7 @@
         <v>1</v>
       </c>
       <c r="C151" s="55" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F151" s="35"/>
       <c r="G151" s="36"/>
@@ -5317,73 +5331,73 @@
         <v>1</v>
       </c>
       <c r="C152" s="55" t="s">
-        <v>266</v>
+        <v>348</v>
       </c>
       <c r="F152" s="35"/>
       <c r="G152" s="36"/>
     </row>
     <row r="153" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="60">
-        <v>2</v>
+      <c r="B153" s="37">
+        <v>1</v>
       </c>
       <c r="C153" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F153" s="35"/>
       <c r="G153" s="36"/>
     </row>
     <row r="154" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="60">
-        <v>4</v>
+      <c r="B154" s="37">
+        <v>1</v>
       </c>
       <c r="C154" s="55" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="F154" s="35"/>
       <c r="G154" s="36"/>
     </row>
     <row r="155" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="61">
-        <v>11</v>
-      </c>
-      <c r="C155" s="55"/>
+      <c r="B155" s="60">
+        <v>2</v>
+      </c>
+      <c r="C155" s="55" t="s">
+        <v>267</v>
+      </c>
       <c r="F155" s="35"/>
       <c r="G155" s="36"/>
     </row>
-    <row r="156" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="75"/>
-      <c r="C156" s="62" t="s">
-        <v>268</v>
+    <row r="156" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B156" s="60">
+        <v>4</v>
+      </c>
+      <c r="C156" s="55" t="s">
+        <v>303</v>
       </c>
       <c r="F156" s="35"/>
       <c r="G156" s="36"/>
     </row>
     <row r="157" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="37">
-        <v>2</v>
-      </c>
-      <c r="C157" s="55" t="s">
-        <v>269</v>
-      </c>
+      <c r="B157" s="61">
+        <v>11</v>
+      </c>
+      <c r="C157" s="55"/>
       <c r="F157" s="35"/>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="37">
-        <v>1</v>
-      </c>
-      <c r="C158" s="55" t="s">
-        <v>270</v>
+    <row r="158" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="75"/>
+      <c r="C158" s="62" t="s">
+        <v>268</v>
       </c>
       <c r="F158" s="35"/>
       <c r="G158" s="36"/>
     </row>
     <row r="159" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C159" s="55" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F159" s="35"/>
       <c r="G159" s="36"/>
@@ -5393,109 +5407,109 @@
         <v>1</v>
       </c>
       <c r="C160" s="55" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="F160" s="35"/>
       <c r="G160" s="36"/>
     </row>
     <row r="161" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="60">
-        <v>2</v>
+      <c r="B161" s="37">
+        <v>1</v>
       </c>
       <c r="C161" s="55" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F161" s="35"/>
       <c r="G161" s="36"/>
     </row>
     <row r="162" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="61">
-        <v>7</v>
-      </c>
-      <c r="C162" s="61"/>
+      <c r="B162" s="37">
+        <v>1</v>
+      </c>
+      <c r="C162" s="55" t="s">
+        <v>266</v>
+      </c>
       <c r="F162" s="35"/>
       <c r="G162" s="36"/>
     </row>
     <row r="163" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="61"/>
-      <c r="C163" s="61"/>
+      <c r="B163" s="60">
+        <v>2</v>
+      </c>
+      <c r="C163" s="55" t="s">
+        <v>271</v>
+      </c>
       <c r="F163" s="35"/>
       <c r="G163" s="36"/>
     </row>
-    <row r="164" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="75"/>
-      <c r="C164" s="62" t="s">
-        <v>272</v>
-      </c>
+    <row r="164" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="61">
+        <v>7</v>
+      </c>
+      <c r="C164" s="61"/>
       <c r="F164" s="35"/>
       <c r="G164" s="36"/>
     </row>
     <row r="165" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="C165" s="19" t="s">
-        <v>334</v>
-      </c>
+      <c r="B165" s="61"/>
+      <c r="C165" s="61"/>
       <c r="F165" s="35"/>
       <c r="G165" s="36"/>
     </row>
-    <row r="166" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="37">
-        <v>1</v>
-      </c>
-      <c r="C166" s="55" t="s">
-        <v>273</v>
+    <row r="166" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="75"/>
+      <c r="C166" s="62" t="s">
+        <v>272</v>
       </c>
       <c r="F166" s="35"/>
       <c r="G166" s="36"/>
     </row>
     <row r="167" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="37">
-        <v>1</v>
-      </c>
-      <c r="C167" s="55" t="s">
-        <v>274</v>
+      <c r="B167" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C167" s="19" t="s">
+        <v>333</v>
       </c>
       <c r="F167" s="35"/>
       <c r="G167" s="36"/>
     </row>
     <row r="168" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C168" s="55" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F168" s="35"/>
       <c r="G168" s="36"/>
     </row>
     <row r="169" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" s="55" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F169" s="35"/>
       <c r="G169" s="36"/>
     </row>
     <row r="170" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="55" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F170" s="35"/>
       <c r="G170" s="36"/>
     </row>
     <row r="171" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C171" s="55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F171" s="35"/>
       <c r="G171" s="36"/>
@@ -5504,8 +5518,8 @@
       <c r="B172" s="37">
         <v>1</v>
       </c>
-      <c r="C172" s="40" t="s">
-        <v>279</v>
+      <c r="C172" s="55" t="s">
+        <v>277</v>
       </c>
       <c r="F172" s="35"/>
       <c r="G172" s="36"/>
@@ -5514,8 +5528,8 @@
       <c r="B173" s="37">
         <v>1</v>
       </c>
-      <c r="C173" s="40" t="s">
-        <v>280</v>
+      <c r="C173" s="55" t="s">
+        <v>278</v>
       </c>
       <c r="F173" s="35"/>
       <c r="G173" s="36"/>
@@ -5525,62 +5539,62 @@
         <v>1</v>
       </c>
       <c r="C174" s="40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F174" s="35"/>
       <c r="G174" s="36"/>
     </row>
     <row r="175" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175" s="40" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F175" s="35"/>
       <c r="G175" s="36"/>
     </row>
     <row r="176" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C176" s="40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F176" s="35"/>
       <c r="G176" s="36"/>
     </row>
-    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="50">
-        <v>16</v>
-      </c>
-      <c r="C177" s="50"/>
+    <row r="177" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="37">
+        <v>3</v>
+      </c>
+      <c r="C177" s="40" t="s">
+        <v>282</v>
+      </c>
       <c r="F177" s="35"/>
       <c r="G177" s="36"/>
     </row>
-    <row r="178" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="63"/>
-      <c r="C178" s="51"/>
+    <row r="178" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="37">
+        <v>2</v>
+      </c>
+      <c r="C178" s="40" t="s">
+        <v>283</v>
+      </c>
       <c r="F178" s="35"/>
       <c r="G178" s="36"/>
     </row>
-    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="54">
-        <v>1</v>
-      </c>
-      <c r="C179" s="51" t="s">
-        <v>297</v>
-      </c>
+    <row r="179" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="50">
+        <v>16</v>
+      </c>
+      <c r="C179" s="50"/>
       <c r="F179" s="35"/>
       <c r="G179" s="36"/>
     </row>
-    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="54">
-        <v>3</v>
-      </c>
-      <c r="C180" s="51" t="s">
-        <v>284</v>
-      </c>
+    <row r="180" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="63"/>
+      <c r="C180" s="51"/>
       <c r="F180" s="35"/>
       <c r="G180" s="36"/>
     </row>
@@ -5588,18 +5602,18 @@
       <c r="B181" s="54">
         <v>1</v>
       </c>
-      <c r="C181" s="64" t="s">
-        <v>285</v>
+      <c r="C181" s="51" t="s">
+        <v>296</v>
       </c>
       <c r="F181" s="35"/>
       <c r="G181" s="36"/>
     </row>
     <row r="182" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="54">
-        <v>0</v>
-      </c>
-      <c r="C182" s="64" t="s">
-        <v>286</v>
+        <v>3</v>
+      </c>
+      <c r="C182" s="51" t="s">
+        <v>284</v>
       </c>
       <c r="F182" s="35"/>
       <c r="G182" s="36"/>
@@ -5609,17 +5623,17 @@
         <v>1</v>
       </c>
       <c r="C183" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F183" s="35"/>
       <c r="G183" s="36"/>
     </row>
     <row r="184" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C184" s="64" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="F184" s="35"/>
       <c r="G184" s="36"/>
@@ -5629,200 +5643,220 @@
         <v>1</v>
       </c>
       <c r="C185" s="64" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F185" s="35"/>
       <c r="G185" s="36"/>
     </row>
-    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="50">
-        <f>SUM(B179:B185)</f>
-        <v>9</v>
-      </c>
-      <c r="C186" s="38"/>
+    <row r="186" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B186" s="54">
+        <v>2</v>
+      </c>
+      <c r="C186" s="64" t="s">
+        <v>304</v>
+      </c>
       <c r="F186" s="35"/>
       <c r="G186" s="36"/>
     </row>
-    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="65"/>
-      <c r="C187" s="17"/>
+    <row r="187" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B187" s="54">
+        <v>1</v>
+      </c>
+      <c r="C187" s="64" t="s">
+        <v>288</v>
+      </c>
       <c r="F187" s="35"/>
       <c r="G187" s="36"/>
     </row>
     <row r="188" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188"/>
-      <c r="B188" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="C188" s="66" t="s">
-        <v>310</v>
-      </c>
+      <c r="B188" s="50">
+        <f>SUM(B181:B187)</f>
+        <v>9</v>
+      </c>
+      <c r="C188" s="38"/>
       <c r="F188" s="35"/>
       <c r="G188" s="36"/>
     </row>
     <row r="189" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="57"/>
-      <c r="B189" s="67"/>
-      <c r="C189" s="66" t="s">
-        <v>311</v>
-      </c>
+      <c r="B189" s="65"/>
+      <c r="C189" s="17"/>
       <c r="F189" s="35"/>
       <c r="G189" s="36"/>
     </row>
     <row r="190" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="58"/>
-      <c r="B190" s="67"/>
+      <c r="A190"/>
+      <c r="B190" s="65" t="s">
+        <v>308</v>
+      </c>
       <c r="C190" s="66" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F190" s="35"/>
       <c r="G190" s="36"/>
     </row>
     <row r="191" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="58"/>
+      <c r="A191" s="57"/>
       <c r="B191" s="67"/>
       <c r="C191" s="66" t="s">
-        <v>313</v>
-      </c>
+        <v>310</v>
+      </c>
+      <c r="F191" s="35"/>
+      <c r="G191" s="36"/>
     </row>
     <row r="192" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="58"/>
       <c r="B192" s="67"/>
       <c r="C192" s="66" t="s">
-        <v>314</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="F192" s="35"/>
+      <c r="G192" s="36"/>
     </row>
     <row r="193" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="58"/>
       <c r="B193" s="67"/>
-      <c r="C193" s="66"/>
+      <c r="C193" s="66" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="194" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="58"/>
-      <c r="B194" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C194" s="69" t="s">
-        <v>315</v>
+      <c r="B194" s="67"/>
+      <c r="C194" s="66" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="58"/>
-      <c r="B195" s="68"/>
-      <c r="C195" s="69" t="s">
-        <v>316</v>
-      </c>
+      <c r="B195" s="67"/>
+      <c r="C195" s="66"/>
     </row>
     <row r="196" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="22"/>
-      <c r="B196" s="68"/>
+      <c r="A196" s="58"/>
+      <c r="B196" s="68" t="s">
+        <v>19</v>
+      </c>
       <c r="C196" s="69" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="22"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="70"/>
+      <c r="A197" s="58"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="69" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="198" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="22"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="70"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="69" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="199" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="22"/>
-      <c r="B199" s="71"/>
-      <c r="C199" s="18"/>
+      <c r="B199" s="17"/>
+      <c r="C199" s="70"/>
     </row>
     <row r="200" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="22"/>
-      <c r="B200" s="18"/>
-      <c r="C200" s="18"/>
+      <c r="B200" s="17"/>
+      <c r="C200" s="70"/>
     </row>
     <row r="201" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="22"/>
-      <c r="B201" s="18"/>
+      <c r="B201" s="71"/>
       <c r="C201" s="18"/>
     </row>
-    <row r="202" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="22"/>
-      <c r="B202" s="17" t="s">
-        <v>318</v>
-      </c>
-      <c r="C202" s="59"/>
+      <c r="B202" s="18"/>
+      <c r="C202" s="18"/>
     </row>
     <row r="203" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="22"/>
-      <c r="B203" s="71"/>
-      <c r="C203" s="71"/>
-    </row>
-    <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="18"/>
+      <c r="C203" s="18"/>
+    </row>
+    <row r="204" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="22"/>
-      <c r="B204" s="71"/>
-      <c r="C204" s="71"/>
-    </row>
-    <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C204" s="59"/>
+    </row>
+    <row r="205" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="22"/>
-      <c r="B205" s="17" t="s">
-        <v>319</v>
-      </c>
-      <c r="C205" s="59"/>
+      <c r="B205" s="71"/>
+      <c r="C205" s="71"/>
     </row>
     <row r="206" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="22"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-    </row>
-    <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B206" s="71"/>
+      <c r="C206" s="71"/>
+    </row>
+    <row r="207" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="22"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
+      <c r="B207" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="C207" s="59"/>
     </row>
     <row r="208" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="22"/>
-      <c r="B208" s="71"/>
-      <c r="C208" s="71"/>
+      <c r="B208" s="17"/>
+      <c r="C208" s="17"/>
     </row>
     <row r="209" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="22"/>
-      <c r="B209" s="71"/>
-      <c r="C209" s="71"/>
-    </row>
-    <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="17"/>
+      <c r="C209" s="17"/>
+    </row>
+    <row r="210" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="22"/>
-      <c r="B210" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C210" s="59"/>
+      <c r="B210" s="71"/>
+      <c r="C210" s="71"/>
     </row>
     <row r="211" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="22"/>
       <c r="B211" s="71"/>
       <c r="C211" s="71"/>
     </row>
-    <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="71"/>
-      <c r="C212" s="71"/>
-    </row>
-    <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="C213" s="59"/>
+    <row r="212" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212" s="59"/>
+    </row>
+    <row r="213" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="71"/>
+      <c r="C213" s="71"/>
     </row>
     <row r="214" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="71"/>
       <c r="C214" s="71"/>
     </row>
-    <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="71"/>
-      <c r="C215" s="71"/>
-    </row>
-    <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="17" t="s">
+    <row r="215" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B215" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="C215" s="59"/>
+    </row>
+    <row r="216" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="71"/>
+      <c r="C216" s="71"/>
+    </row>
+    <row r="217" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B217" s="71"/>
+      <c r="C217" s="71"/>
+    </row>
+    <row r="218" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C216" s="59"/>
+      <c r="C218" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="6">
